--- a/8/5/1/Exportaciones según CUCI 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Exportaciones según CUCI 2003 a 2021 - Trimestral.xlsx
@@ -10074,16 +10074,16 @@
         <v>114</v>
       </c>
       <c r="B74">
-        <v>21897</v>
+        <v>22232</v>
       </c>
       <c r="C74">
-        <v>5120</v>
+        <v>5205</v>
       </c>
       <c r="D74">
-        <v>1481</v>
+        <v>1488</v>
       </c>
       <c r="E74">
-        <v>3041</v>
+        <v>3119</v>
       </c>
       <c r="F74">
         <v>87</v>
@@ -10095,7 +10095,7 @@
         <v>78</v>
       </c>
       <c r="I74">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J74">
         <v>52</v>
@@ -10110,28 +10110,28 @@
         <v>13</v>
       </c>
       <c r="N74">
-        <v>8507</v>
+        <v>8689</v>
       </c>
       <c r="O74">
-        <v>7508</v>
+        <v>7695</v>
       </c>
       <c r="P74">
         <v>519</v>
       </c>
       <c r="Q74">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="R74">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S74">
         <v>67</v>
       </c>
       <c r="T74">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="U74">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="V74">
         <v>34</v>
@@ -10140,13 +10140,13 @@
         <v>73</v>
       </c>
       <c r="X74">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="Y74">
         <v>83</v>
       </c>
       <c r="Z74">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA74">
         <v>105</v>
@@ -10155,16 +10155,16 @@
         <v>188</v>
       </c>
       <c r="AC74">
-        <v>6054</v>
+        <v>6124</v>
       </c>
       <c r="AD74">
-        <v>5370</v>
+        <v>5439</v>
       </c>
       <c r="AE74">
         <v>217</v>
       </c>
       <c r="AF74">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG74">
         <v>93</v>
@@ -10173,7 +10173,7 @@
         <v>46</v>
       </c>
       <c r="AI74">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AJ74">
         <v>335</v>
@@ -10202,28 +10202,28 @@
         <v>115</v>
       </c>
       <c r="B75">
-        <v>23480</v>
+        <v>23234</v>
       </c>
       <c r="C75">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="D75">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E75">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F75">
         <v>133</v>
       </c>
       <c r="G75">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H75">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I75">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J75">
         <v>75</v>
@@ -10238,16 +10238,16 @@
         <v>11</v>
       </c>
       <c r="N75">
-        <v>10340</v>
+        <v>10194</v>
       </c>
       <c r="O75">
-        <v>9062</v>
+        <v>8915</v>
       </c>
       <c r="P75">
         <v>659</v>
       </c>
       <c r="Q75">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R75">
         <v>156</v>
@@ -10256,10 +10256,10 @@
         <v>79</v>
       </c>
       <c r="T75">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="U75">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V75">
         <v>24</v>
@@ -10268,13 +10268,13 @@
         <v>122</v>
       </c>
       <c r="X75">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Y75">
         <v>87</v>
       </c>
       <c r="Z75">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AA75">
         <v>88</v>
@@ -10283,10 +10283,10 @@
         <v>225</v>
       </c>
       <c r="AC75">
-        <v>6798</v>
+        <v>6702</v>
       </c>
       <c r="AD75">
-        <v>6066</v>
+        <v>5971</v>
       </c>
       <c r="AE75">
         <v>230</v>
@@ -10295,31 +10295,31 @@
         <v>123</v>
       </c>
       <c r="AG75">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH75">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI75">
         <v>240</v>
       </c>
       <c r="AJ75">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AK75">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AL75">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AM75">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AN75">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO75">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AP75">
         <v>236</v>

--- a/8/5/1/Exportaciones según CUCI 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Exportaciones según CUCI 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Serie</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10325,6 +10328,134 @@
         <v>236</v>
       </c>
     </row>
+    <row r="76" spans="1:42">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76">
+        <v>23194</v>
+      </c>
+      <c r="C76">
+        <v>3585</v>
+      </c>
+      <c r="D76">
+        <v>1482</v>
+      </c>
+      <c r="E76">
+        <v>1393</v>
+      </c>
+      <c r="F76">
+        <v>139</v>
+      </c>
+      <c r="G76">
+        <v>377</v>
+      </c>
+      <c r="H76">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>55</v>
+      </c>
+      <c r="J76">
+        <v>62</v>
+      </c>
+      <c r="K76">
+        <v>506</v>
+      </c>
+      <c r="L76">
+        <v>493</v>
+      </c>
+      <c r="M76">
+        <v>12</v>
+      </c>
+      <c r="N76">
+        <v>10011</v>
+      </c>
+      <c r="O76">
+        <v>8600</v>
+      </c>
+      <c r="P76">
+        <v>792</v>
+      </c>
+      <c r="Q76">
+        <v>410</v>
+      </c>
+      <c r="R76">
+        <v>151</v>
+      </c>
+      <c r="S76">
+        <v>58</v>
+      </c>
+      <c r="T76">
+        <v>138</v>
+      </c>
+      <c r="U76">
+        <v>105</v>
+      </c>
+      <c r="V76">
+        <v>33</v>
+      </c>
+      <c r="W76">
+        <v>110</v>
+      </c>
+      <c r="X76">
+        <v>993</v>
+      </c>
+      <c r="Y76">
+        <v>52</v>
+      </c>
+      <c r="Z76">
+        <v>601</v>
+      </c>
+      <c r="AA76">
+        <v>123</v>
+      </c>
+      <c r="AB76">
+        <v>217</v>
+      </c>
+      <c r="AC76">
+        <v>7049</v>
+      </c>
+      <c r="AD76">
+        <v>6161</v>
+      </c>
+      <c r="AE76">
+        <v>313</v>
+      </c>
+      <c r="AF76">
+        <v>128</v>
+      </c>
+      <c r="AG76">
+        <v>99</v>
+      </c>
+      <c r="AH76">
+        <v>44</v>
+      </c>
+      <c r="AI76">
+        <v>304</v>
+      </c>
+      <c r="AJ76">
+        <v>409</v>
+      </c>
+      <c r="AK76">
+        <v>163</v>
+      </c>
+      <c r="AL76">
+        <v>246</v>
+      </c>
+      <c r="AM76">
+        <v>160</v>
+      </c>
+      <c r="AN76">
+        <v>58</v>
+      </c>
+      <c r="AO76">
+        <v>101</v>
+      </c>
+      <c r="AP76">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
